--- a/data/trans_orig/IP16A112_2023R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A112_2023R-Estudios-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94411AA4-D6EB-4A21-AFC7-8ABD220C0557}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{088A8309-4588-4593-B888-F8204CA22127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{558CEA5F-FD0F-422B-92C1-E3ADF852F310}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4537FEE8-9D3B-4633-853F-4A588AB6F996}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
   <si>
     <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2023 (Tasa respuesta: 25,0%)</t>
   </si>
@@ -74,28 +74,28 @@
     <t>47,28%</t>
   </si>
   <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
+    <t>25,47%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
   </si>
   <si>
     <t>33,03%</t>
   </si>
   <si>
-    <t>11,69%</t>
-  </si>
-  <si>
-    <t>58,99%</t>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>59,28%</t>
   </si>
   <si>
     <t>40,85%</t>
   </si>
   <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>57,63%</t>
+    <t>24,71%</t>
+  </si>
+  <si>
+    <t>59,96%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>52,72%</t>
   </si>
   <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>74,53%</t>
   </si>
   <si>
     <t>66,97%</t>
   </si>
   <si>
-    <t>41,01%</t>
-  </si>
-  <si>
-    <t>88,31%</t>
+    <t>40,72%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
   </si>
   <si>
     <t>59,15%</t>
   </si>
   <si>
-    <t>42,37%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
+    <t>40,04%</t>
+  </si>
+  <si>
+    <t>75,29%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>40,68%</t>
   </si>
   <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>48,81%</t>
+    <t>32,15%</t>
+  </si>
+  <si>
+    <t>49,01%</t>
   </si>
   <si>
     <t>45,48%</t>
   </si>
   <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>54,35%</t>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>54,41%</t>
   </si>
   <si>
     <t>42,95%</t>
   </si>
   <si>
-    <t>36,13%</t>
-  </si>
-  <si>
-    <t>49,41%</t>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>49,2%</t>
   </si>
   <si>
     <t>59,32%</t>
   </si>
   <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
+    <t>50,99%</t>
+  </si>
+  <si>
+    <t>67,85%</t>
   </si>
   <si>
     <t>54,52%</t>
   </si>
   <si>
-    <t>45,65%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
+    <t>45,59%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
   </si>
   <si>
     <t>57,05%</t>
   </si>
   <si>
-    <t>50,59%</t>
-  </si>
-  <si>
-    <t>63,87%</t>
+    <t>50,8%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
   </si>
   <si>
     <t>Universitarios</t>
@@ -194,109 +194,103 @@
     <t>51,34%</t>
   </si>
   <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>65,15%</t>
+    <t>38,83%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
   </si>
   <si>
     <t>50,23%</t>
   </si>
   <si>
-    <t>37,98%</t>
-  </si>
-  <si>
-    <t>63,32%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>40,51%</t>
-  </si>
-  <si>
-    <t>59,55%</t>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>62,16%</t>
+  </si>
+  <si>
+    <t>41,84%</t>
+  </si>
+  <si>
+    <t>59,36%</t>
   </si>
   <si>
     <t>48,66%</t>
   </si>
   <si>
-    <t>34,85%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
+    <t>34,43%</t>
+  </si>
+  <si>
+    <t>61,17%</t>
   </si>
   <si>
     <t>49,77%</t>
   </si>
   <si>
-    <t>36,68%</t>
-  </si>
-  <si>
-    <t>62,02%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>40,45%</t>
-  </si>
-  <si>
-    <t>59,49%</t>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>40,64%</t>
+  </si>
+  <si>
+    <t>58,16%</t>
   </si>
   <si>
     <t>43,95%</t>
   </si>
   <si>
-    <t>36,93%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
+    <t>37,01%</t>
+  </si>
+  <si>
+    <t>50,02%</t>
   </si>
   <si>
     <t>45,8%</t>
   </si>
   <si>
-    <t>37,26%</t>
-  </si>
-  <si>
-    <t>53,24%</t>
+    <t>37,47%</t>
+  </si>
+  <si>
+    <t>53,55%</t>
   </si>
   <si>
     <t>44,83%</t>
   </si>
   <si>
-    <t>39,46%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
+    <t>39,76%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
   </si>
   <si>
     <t>56,05%</t>
   </si>
   <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>63,07%</t>
+    <t>49,98%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
   </si>
   <si>
     <t>54,2%</t>
   </si>
   <si>
-    <t>46,76%</t>
-  </si>
-  <si>
-    <t>62,74%</t>
+    <t>46,45%</t>
+  </si>
+  <si>
+    <t>62,53%</t>
   </si>
   <si>
     <t>55,17%</t>
   </si>
   <si>
-    <t>50,28%</t>
-  </si>
-  <si>
-    <t>60,54%</t>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>60,24%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -711,7 +705,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A067281A-B41F-4EC9-89D6-23BB9C44FF6C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F262F09-0227-4660-96CE-C0F831BC90D0}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1175,13 +1169,13 @@
         <v>43498</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1196,13 +1190,13 @@
         <v>21541</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>33</v>
@@ -1211,13 +1205,13 @@
         <v>20582</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
@@ -1226,13 +1220,13 @@
         <v>42123</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1300,13 +1294,13 @@
         <v>76061</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="H13" s="7">
         <v>114</v>
@@ -1315,13 +1309,13 @@
         <v>71487</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>229</v>
@@ -1330,13 +1324,13 @@
         <v>147547</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1351,13 +1345,13 @@
         <v>96988</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>80</v>
       </c>
       <c r="H14" s="7">
         <v>115</v>
@@ -1366,13 +1360,13 @@
         <v>84611</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>251</v>
@@ -1381,13 +1375,13 @@
         <v>181599</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1443,7 +1437,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP16A112_2023R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP16A112_2023R-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{088A8309-4588-4593-B888-F8204CA22127}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9633E0C1-606C-46A6-AAA9-10B6E2988561}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4537FEE8-9D3B-4633-853F-4A588AB6F996}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{0D734B09-0EB2-4B87-88FF-B8DE4937AF68}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
   <si>
     <t>Menores según si ha consumido medicinas para el dolor y/o para bajar la fiebre en 2023 (Tasa respuesta: 25,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>25,47%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>59,28%</t>
-  </si>
-  <si>
-    <t>40,85%</t>
-  </si>
-  <si>
-    <t>24,71%</t>
-  </si>
-  <si>
-    <t>59,96%</t>
+    <t>25,56%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>54,42%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>21,68%</t>
+  </si>
+  <si>
+    <t>65,39%</t>
+  </si>
+  <si>
+    <t>35,17%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>52,78%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>74,53%</t>
-  </si>
-  <si>
-    <t>66,97%</t>
-  </si>
-  <si>
-    <t>40,72%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>59,15%</t>
-  </si>
-  <si>
-    <t>40,04%</t>
-  </si>
-  <si>
-    <t>75,29%</t>
+    <t>74,44%</t>
+  </si>
+  <si>
+    <t>45,58%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>55,48%</t>
+  </si>
+  <si>
+    <t>34,61%</t>
+  </si>
+  <si>
+    <t>78,32%</t>
+  </si>
+  <si>
+    <t>64,83%</t>
+  </si>
+  <si>
+    <t>47,22%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,163 +134,169 @@
     <t>Secundarios</t>
   </si>
   <si>
-    <t>40,68%</t>
-  </si>
-  <si>
-    <t>32,15%</t>
-  </si>
-  <si>
-    <t>49,01%</t>
-  </si>
-  <si>
-    <t>45,48%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>54,41%</t>
-  </si>
-  <si>
-    <t>42,95%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>49,2%</t>
-  </si>
-  <si>
-    <t>59,32%</t>
-  </si>
-  <si>
-    <t>50,99%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>54,52%</t>
-  </si>
-  <si>
-    <t>45,59%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>50,8%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>19,96%</t>
+  </si>
+  <si>
+    <t>52,44%</t>
+  </si>
+  <si>
+    <t>40,44%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>39,34%</t>
+  </si>
+  <si>
+    <t>26,8%</t>
+  </si>
+  <si>
+    <t>46,77%</t>
+  </si>
+  <si>
+    <t>61,73%</t>
+  </si>
+  <si>
+    <t>47,56%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>59,56%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>60,66%</t>
+  </si>
+  <si>
+    <t>53,23%</t>
+  </si>
+  <si>
+    <t>73,2%</t>
   </si>
   <si>
     <t>Universitarios</t>
   </si>
   <si>
-    <t>51,34%</t>
-  </si>
-  <si>
-    <t>38,83%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>37,2%</t>
+  </si>
+  <si>
+    <t>61,98%</t>
+  </si>
+  <si>
+    <t>52,29%</t>
+  </si>
+  <si>
+    <t>37,75%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>51,13%</t>
+  </si>
+  <si>
+    <t>40,93%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>50,17%</t>
+  </si>
+  <si>
+    <t>38,02%</t>
+  </si>
+  <si>
+    <t>62,8%</t>
+  </si>
+  <si>
+    <t>47,71%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>48,87%</t>
+  </si>
+  <si>
+    <t>40,32%</t>
+  </si>
+  <si>
+    <t>59,07%</t>
+  </si>
+  <si>
+    <t>39,88%</t>
+  </si>
+  <si>
+    <t>23,77%</t>
+  </si>
+  <si>
+    <t>49,62%</t>
+  </si>
+  <si>
+    <t>43,84%</t>
   </si>
   <si>
     <t>37,26%</t>
   </si>
   <si>
-    <t>62,16%</t>
-  </si>
-  <si>
-    <t>41,84%</t>
-  </si>
-  <si>
-    <t>59,36%</t>
-  </si>
-  <si>
-    <t>48,66%</t>
-  </si>
-  <si>
-    <t>34,43%</t>
-  </si>
-  <si>
-    <t>61,17%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>37,84%</t>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>41,88%</t>
+  </si>
+  <si>
+    <t>31,87%</t>
+  </si>
+  <si>
+    <t>46,96%</t>
+  </si>
+  <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>50,38%</t>
+  </si>
+  <si>
+    <t>76,23%</t>
+  </si>
+  <si>
+    <t>56,16%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
   </si>
   <si>
     <t>62,74%</t>
   </si>
   <si>
-    <t>40,64%</t>
-  </si>
-  <si>
-    <t>58,16%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>37,01%</t>
-  </si>
-  <si>
-    <t>50,02%</t>
-  </si>
-  <si>
-    <t>45,8%</t>
-  </si>
-  <si>
-    <t>37,47%</t>
-  </si>
-  <si>
-    <t>53,55%</t>
-  </si>
-  <si>
-    <t>44,83%</t>
-  </si>
-  <si>
-    <t>39,76%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>49,98%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>46,45%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>55,17%</t>
-  </si>
-  <si>
-    <t>50,17%</t>
-  </si>
-  <si>
-    <t>60,24%</t>
+    <t>58,12%</t>
+  </si>
+  <si>
+    <t>53,04%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -705,7 +711,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F262F09-0227-4660-96CE-C0F831BC90D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCEA20AF-B75E-4FE9-BF50-1270F0080902}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -823,10 +829,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" s="7">
-        <v>6792</v>
+        <v>3893</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -838,10 +844,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>3903</v>
+        <v>6975</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -856,7 +862,7 @@
         <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>10695</v>
+        <v>10868</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -874,10 +880,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D5" s="7">
-        <v>7574</v>
+        <v>11337</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -889,10 +895,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I5" s="7">
-        <v>7913</v>
+        <v>8692</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -907,7 +913,7 @@
         <v>20</v>
       </c>
       <c r="N5" s="7">
-        <v>15487</v>
+        <v>20029</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -925,25 +931,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>16</v>
+      </c>
+      <c r="D6" s="7">
+        <v>15230</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>20</v>
       </c>
-      <c r="D6" s="7">
-        <v>14366</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>16</v>
-      </c>
       <c r="I6" s="7">
-        <v>11816</v>
+        <v>15667</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -958,7 +964,7 @@
         <v>36</v>
       </c>
       <c r="N6" s="7">
-        <v>26182</v>
+        <v>30897</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -978,10 +984,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D7" s="7">
-        <v>46543</v>
+        <v>46876</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -993,10 +999,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I7" s="7">
-        <v>46812</v>
+        <v>48536</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1011,7 +1017,7 @@
         <v>152</v>
       </c>
       <c r="N7" s="7">
-        <v>93354</v>
+        <v>95411</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1029,10 +1035,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="D8" s="7">
-        <v>67874</v>
+        <v>75604</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1044,10 +1050,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>73</v>
+        <v>96</v>
       </c>
       <c r="I8" s="7">
-        <v>56115</v>
+        <v>71488</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1062,7 +1068,7 @@
         <v>169</v>
       </c>
       <c r="N8" s="7">
-        <v>123989</v>
+        <v>147092</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1080,25 +1086,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>147</v>
+      </c>
+      <c r="D9" s="7">
+        <v>122480</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>174</v>
       </c>
-      <c r="D9" s="7">
-        <v>114417</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>147</v>
-      </c>
       <c r="I9" s="7">
-        <v>102927</v>
+        <v>120024</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1113,7 +1119,7 @@
         <v>321</v>
       </c>
       <c r="N9" s="7">
-        <v>217343</v>
+        <v>242503</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1133,10 +1139,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>22725</v>
+        <v>20748</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1148,10 +1154,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="I10" s="7">
-        <v>20773</v>
+        <v>24585</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1166,16 +1172,16 @@
         <v>61</v>
       </c>
       <c r="N10" s="7">
-        <v>43498</v>
+        <v>45334</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1184,49 +1190,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>33</v>
+      </c>
+      <c r="D11" s="7">
+        <v>20894</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="7">
         <v>29</v>
       </c>
-      <c r="D11" s="7">
-        <v>21541</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="7">
-        <v>33</v>
-      </c>
       <c r="I11" s="7">
-        <v>20582</v>
+        <v>22433</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>62</v>
       </c>
       <c r="N11" s="7">
-        <v>42123</v>
+        <v>43327</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1235,25 +1241,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>66</v>
+      </c>
+      <c r="D12" s="7">
+        <v>41642</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>57</v>
       </c>
-      <c r="D12" s="7">
-        <v>44266</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>66</v>
-      </c>
       <c r="I12" s="7">
-        <v>41355</v>
+        <v>47018</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1268,7 +1274,7 @@
         <v>123</v>
       </c>
       <c r="N12" s="7">
-        <v>85621</v>
+        <v>88661</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1288,49 +1294,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>114</v>
+      </c>
+      <c r="D13" s="7">
+        <v>71517</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H13" s="7">
         <v>115</v>
       </c>
-      <c r="D13" s="7">
-        <v>76061</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="H13" s="7">
-        <v>114</v>
-      </c>
       <c r="I13" s="7">
-        <v>71487</v>
+        <v>80096</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>229</v>
       </c>
       <c r="N13" s="7">
-        <v>147547</v>
+        <v>151613</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1339,49 +1345,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>115</v>
+      </c>
+      <c r="D14" s="7">
+        <v>107835</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H14" s="7">
         <v>136</v>
       </c>
-      <c r="D14" s="7">
-        <v>96988</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H14" s="7">
-        <v>115</v>
-      </c>
       <c r="I14" s="7">
-        <v>84611</v>
+        <v>102613</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>251</v>
       </c>
       <c r="N14" s="7">
-        <v>181599</v>
+        <v>210448</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1390,25 +1396,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>229</v>
+      </c>
+      <c r="D15" s="7">
+        <v>179352</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>251</v>
       </c>
-      <c r="D15" s="7">
-        <v>173049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>229</v>
-      </c>
       <c r="I15" s="7">
-        <v>156098</v>
+        <v>182709</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1423,7 +1429,7 @@
         <v>480</v>
       </c>
       <c r="N15" s="7">
-        <v>329146</v>
+        <v>362061</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1437,7 +1443,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
